--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,59 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hondakeisuke/開発/distance_search_app/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA6E9D-D82B-2F47-B9D6-5B3EF31B5D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6160" yWindow="2100" windowWidth="22380" windowHeight="15340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="6160" yWindow="2100" windowWidth="22380" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="new_sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="new_sheet18" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="new_sheet18" sheetId="3" r:id="rId3"/>
+    <sheet name="new_sheet16" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+  <si>
+    <t>point_a</t>
+  </si>
+  <si>
+    <t>point_b</t>
+  </si>
+  <si>
+    <t>福岡県福岡市南区寺塚２ー２６ー１９</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅中央街１−１</t>
+  </si>
+  <si>
+    <t>福岡県福岡市早良区百道浜２丁目３−２６</t>
+  </si>
+  <si>
+    <t>point_a_lat_lon</t>
+  </si>
+  <si>
+    <t>point_b_lat_lon</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>(33.559052, 130.401062)</t>
+  </si>
+  <si>
+    <t>(33.589912, 130.420395)</t>
+  </si>
+  <si>
+    <t>(33.593754, 130.351791)</t>
+  </si>
+  <si>
+    <t>distance(km)</t>
+  </si>
+  <si>
+    <t>福岡県福岡市中央区赤坂２丁目５−５ 福岡市立中央体育館</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Hiragino Sans"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <b/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,98 +110,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,264 +451,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col width="35.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="34.5703125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>point_a</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>point_b</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>福岡県福岡市南区寺塚２ー２６ー１９</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>福岡県福岡市博多区博多駅中央街１−１</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>福岡県福岡市早良区百道浜２丁目３−２６</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>福岡県福岡市博多区博多駅中央街１−１</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>point_a</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>point_b</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>point_a_lat_lon</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>point_b_lat_lon</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:6">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>福岡県福岡市南区寺塚２ー２６ー１９</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>福岡県福岡市博多区博多駅中央街１−１</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>(33.559052, 130.401062)</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>(33.589912, 130.420395)</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>3.864910482386152</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>福岡県福岡市早良区百道浜２丁目３−２６</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>福岡県福岡市博多区博多駅中央街１−１</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>(33.593754, 130.351791)</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>(33.589912, 130.420395)</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>6.382360508200578</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>6.3823605082005779</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>point_a</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>point_b</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>point_a_lat_lon</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>point_b_lat_lon</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>distance(km)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:6">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>福岡県福岡市南区寺塚２ー２６ー１９</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>福岡県福岡市博多区博多駅中央街１−１</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>(33.559052, 130.401062)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(33.589912, 130.420395)</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>3.864910482386152</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>福岡県福岡市早良区百道浜２丁目３−２６</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>福岡県福岡市博多区博多駅中央街１−１</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(33.593754, 130.351791)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(33.589912, 130.420395)</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6.382360508200578</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>6.3823605082005779</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>3.864910482386152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>6.3823605082005779</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hondakeisuke/開発/distance_search_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA6E9D-D82B-2F47-B9D6-5B3EF31B5D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A93DE0-C471-7A45-A460-9725E49D3BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="2100" windowWidth="22380" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6160" yWindow="2100" windowWidth="22380" windowHeight="15340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="new_sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="new_sheet18" sheetId="3" r:id="rId3"/>
-    <sheet name="new_sheet16" sheetId="4" r:id="rId4"/>
+    <sheet name="new_sheet8" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>point_a</t>
   </si>
@@ -31,7 +29,7 @@
     <t>point_b</t>
   </si>
   <si>
-    <t>福岡県福岡市南区寺塚２ー２６ー１９</t>
+    <t>福岡県福岡市中央区赤坂２丁目５−５</t>
   </si>
   <si>
     <t>福岡県福岡市博多区博多駅中央街１−１</t>
@@ -46,12 +44,6 @@
     <t>point_b_lat_lon</t>
   </si>
   <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>(33.559052, 130.401062)</t>
-  </si>
-  <si>
     <t>(33.589912, 130.420395)</t>
   </si>
   <si>
@@ -61,8 +53,7 @@
     <t>distance(km)</t>
   </si>
   <si>
-    <t>福岡県福岡市中央区赤坂２丁目５−５ 福岡市立中央体育館</t>
-    <phoneticPr fontId="1"/>
+    <t>(33.585827, 130.389099)</t>
   </si>
 </sst>
 </file>
@@ -454,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -474,7 +465,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -495,12 +486,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="B1:F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="2" t="s">
@@ -516,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -530,13 +529,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>3.864910482386152</v>
+        <v>2.940281700987982</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -550,152 +549,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>6.3823605082005779</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>3.864910482386152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>6.3823605082005779</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>3.864910482386152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>6.3823605082005779</v>
